--- a/biology/Médecine/Eugène-Humbert_Guitard/Eugène-Humbert_Guitard.xlsx
+++ b/biology/Médecine/Eugène-Humbert_Guitard/Eugène-Humbert_Guitard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne-Humbert_Guitard</t>
+          <t>Eugène-Humbert_Guitard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugène-Humbert Guitard est un historien, libraire et éditeur français, spécialiste de l'histoire de la pharmacie, né à Toulouse le 26 décembre 1884, et mort dans la même ville le 21 mai 1976.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne-Humbert_Guitard</t>
+          <t>Eugène-Humbert_Guitard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugène-Humbert Guitard est le fils de Julien Gustave Émile Guitard qui dirigeait depuis 1886 la succursale toulousaine de la Pharmacie centrale de France.
 Après des études au lycée Fermat à Toulouse, au lycée Lakanal à Sceaux, à la Sorbonne, à la faculté de droit de Toulouse, à l'Institut d'urbanisme de Paris et à l'École pratique des hautes études, il est élève de l'École nationale des chartes où il obtient le diplôme d'archiviste paléographe avec une thèse sur l'école gothique du Midi de la France.
 Après avoir été attaché à la bibliothèque historique de la Ville de Paris, aux archives départementales de la Gironde, puis à celles des Alpes-Maritimes, il est nommé à la bibliothèque municipale de Toulouse.
-À la demande de Charles Buchet, directeur de la Pharmacie centrale de France, il publie en 1911 l'histoire des journaux professionnels et en particulier de l'Union pharmaceutique, organe de la Pharmacie centrale[1].
-Il fonde la Société d'histoire de la pharmacie en 1913 avec Charles Buchet et Paul Dorveaux[2] dont il assure le secrétariat général et la direction du Bulletin, puis de la revue pendant cinquante ans.
+À la demande de Charles Buchet, directeur de la Pharmacie centrale de France, il publie en 1911 l'histoire des journaux professionnels et en particulier de l'Union pharmaceutique, organe de la Pharmacie centrale.
+Il fonde la Société d'histoire de la pharmacie en 1913 avec Charles Buchet et Paul Dorveaux dont il assure le secrétariat général et la direction du Bulletin, puis de la revue pendant cinquante ans.
 À partir de 1920, il est propriétaire des librairies Marqueste à Toulouse et Bouquet à Paris et éditeur sous la raison sociale Éditions Occitania. Les éditions publient en 1937 l'Histoire de la pharmacie en France, des origines à nos jours de Maurice Bouvet.
-De 1935 à 1948, il est conservateur du musée Saint-Raymond[3],[4].
+De 1935 à 1948, il est conservateur du musée Saint-Raymond,.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne-Humbert_Guitard</t>
+          <t>Eugène-Humbert_Guitard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Colbert et Seignelay contre la Religion réformée, étude inédite sur le rôle des secrétaires d'État de la maison du roi entre 1661 et 1690 dans la révocation de l'édit de Nantes, particulièrement à Paris, dans le Centre et dans l'Ouest, Auguste Picard éditeur, Paris, 1912
 Deux siècles de presse au service de la pharmacie et cinquante ans de l'Union pharmaceutique, 1913
@@ -611,7 +627,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne-Humbert_Guitard</t>
+          <t>Eugène-Humbert_Guitard</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -629,9 +645,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Médaille George Urdang décernée par l'American Institute of the History of Pharmacy[5], en 1954
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Médaille George Urdang décernée par l'American Institute of the History of Pharmacy, en 1954
 Médaille Schelenz-Plakette, décernée par l'Internationale Gesellschaft für Geschichte der Pharmazie, en 1972</t>
         </is>
       </c>
@@ -642,7 +660,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne-Humbert_Guitard</t>
+          <t>Eugène-Humbert_Guitard</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -660,7 +678,9 @@
           <t>Reconnaissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Une rue de Toulouse porte son nom.</t>
         </is>
